--- a/P07/Scrum_MICE.xlsx
+++ b/P07/Scrum_MICE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunhokim/Desktop/cse1325/Project/P07/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF025FDA-AF6A-A641-9606-5186C7D5F293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD0B17B-3404-9041-AF65-4C3C62A56915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="205">
   <si>
     <t>Product Name:</t>
   </si>
@@ -654,9 +654,6 @@
   </si>
   <si>
     <t>draw logo with vectors in the About dialog</t>
-  </si>
-  <si>
-    <t>In Work</t>
   </si>
   <si>
     <t>Finished in Sprint 3</t>
@@ -2064,7 +2061,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3788,7 +3785,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
@@ -4430,7 +4427,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>54</v>
@@ -4463,7 +4460,7 @@
         <v>3</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>31</v>
@@ -4496,7 +4493,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>31</v>
@@ -4527,7 +4524,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>65</v>
@@ -4558,7 +4555,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>65</v>
@@ -7911,8 +7908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -8140,11 +8137,11 @@
       </c>
       <c r="B14" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="18">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -8207,7 +8204,7 @@
         <v>59</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:5">
